--- a/biology/Histoire de la zoologie et de la botanique/Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle/Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle/Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_directeurs_du_Mus%C3%A9um_national_d%27histoire_naturelle</t>
+          <t>Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Muséum national d'histoire naturelle (MNHN), fondé en 1793, est un établissement français de recherche et de diffusion de la culture scientifique naturaliste. 
 La charge de Surintendant du jardin royal des plantes médicinales est créée par Guy de La Brosse. Elle revient normalement au Premier médecin du roi sous l'Ancien Régime.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_directeurs_du_Mus%C3%A9um_national_d%27histoire_naturelle</t>
+          <t>Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,16 @@
           <t>1635-1793 Surintendant du Jardin royal des plantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1635 à 1641 : Guy de La Brosse.
-1641 à 1658 : Charles Bouvard[1],[2]
+1641 à 1658 : Charles Bouvard,
 1658 à 1671 : Antoine Vallot.
 1672 à 1693 : Antoine d'Aquin.
-1693 à 1718 : Guy-Crescent Fagon[3]
-1718 à 1732 : Pierre Chirac[4],[5]
+1693 à 1718 : Guy-Crescent Fagon
+1718 à 1732 : Pierre Chirac,
 1732 à 1739 : Charles François de Cisternay du Fay
 1739 à 1788 : Georges-Louis Leclerc de Buffon.
 1788 à 1791 : Auguste Charles César de Flahaut de La Billarderie.
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_directeurs_du_Mus%C3%A9um_national_d%27histoire_naturelle</t>
+          <t>Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>1793 - 1800 Directeur du Muséum, élu pour un an</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1793 à 1794 : Louis Jean-Marie Daubenton.
 1794 à 1795 : Antoine-Laurent de Jussieu.
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_directeurs_du_Mus%C3%A9um_national_d%27histoire_naturelle</t>
+          <t>Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>1800 - 1863 Directeur du Muséum, élu pour deux ans</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1800 à 1801 : Antoine-François Fourcroy.
 1802 à 1803 : René Desfontaines.
@@ -632,7 +650,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_directeurs_du_Mus%C3%A9um_national_d%27histoire_naturelle</t>
+          <t>Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -650,7 +668,9 @@
           <t>1863 - 1999 Directeur du Muséum, nommé pour cinq ans</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1863 à 1879 : Michel-Eugène Chevreul.
 1879 à 1891 : Edmond Frémy.
@@ -677,7 +697,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_directeurs_du_Mus%C3%A9um_national_d%27histoire_naturelle</t>
+          <t>Liste_des_directeurs_du_Muséum_national_d'histoire_naturelle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -695,7 +715,9 @@
           <t>2002 - Président du Muséum, nommé pour cinq ans</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2002-2006 : Bernard Chevassus-au-Louis.
 2006-2008 : André Menez
